--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Ifnb1</t>
+  </si>
+  <si>
+    <t>Ifnar2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ifnb1</t>
-  </si>
-  <si>
-    <t>Ifnar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -534,25 +534,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H2">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I2">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J2">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.309487</v>
+        <v>31.743396</v>
       </c>
       <c r="N2">
-        <v>48.928461</v>
+        <v>95.230188</v>
       </c>
       <c r="O2">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="P2">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="Q2">
-        <v>3.132894794325667</v>
+        <v>1.25645651934</v>
       </c>
       <c r="R2">
-        <v>28.196053148931</v>
+        <v>11.30810867406</v>
       </c>
       <c r="S2">
-        <v>0.05523625427313312</v>
+        <v>0.0341344678555295</v>
       </c>
       <c r="T2">
-        <v>0.05523625427313311</v>
+        <v>0.0341344678555295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H3">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I3">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J3">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>85.10236499999999</v>
       </c>
       <c r="O3">
-        <v>0.1026647715316729</v>
+        <v>0.1062760886263749</v>
       </c>
       <c r="P3">
-        <v>0.1026647715316729</v>
+        <v>0.106276088626375</v>
       </c>
       <c r="Q3">
-        <v>5.449113886768332</v>
+        <v>1.122831147991667</v>
       </c>
       <c r="R3">
-        <v>49.042024980915</v>
+        <v>10.105480331925</v>
       </c>
       <c r="S3">
-        <v>0.09607365072007852</v>
+        <v>0.03050423404101689</v>
       </c>
       <c r="T3">
-        <v>0.09607365072007852</v>
+        <v>0.0305042340410169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H4">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I4">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J4">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.295663</v>
+        <v>70.51016133333333</v>
       </c>
       <c r="N4">
-        <v>210.886989</v>
+        <v>211.530484</v>
       </c>
       <c r="O4">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="P4">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="Q4">
-        <v>13.50311733755767</v>
+        <v>2.790909702508889</v>
       </c>
       <c r="R4">
-        <v>121.528056038019</v>
+        <v>25.11818732258</v>
       </c>
       <c r="S4">
-        <v>0.2380742641240939</v>
+        <v>0.07582134046152042</v>
       </c>
       <c r="T4">
-        <v>0.2380742641240939</v>
+        <v>0.07582134046152043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H5">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I5">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J5">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.105304</v>
+        <v>6.595865666666666</v>
       </c>
       <c r="N5">
-        <v>33.315912</v>
+        <v>19.787597</v>
       </c>
       <c r="O5">
-        <v>0.04019125078191798</v>
+        <v>0.02471081047483217</v>
       </c>
       <c r="P5">
-        <v>0.04019125078191799</v>
+        <v>0.02471081047483218</v>
       </c>
       <c r="Q5">
-        <v>2.133221547128</v>
+        <v>0.2610753561961111</v>
       </c>
       <c r="R5">
-        <v>19.198993924152</v>
+        <v>2.349678205765</v>
       </c>
       <c r="S5">
-        <v>0.03761095585191872</v>
+        <v>0.007092699362671339</v>
       </c>
       <c r="T5">
-        <v>0.03761095585191872</v>
+        <v>0.007092699362671341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H6">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I6">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J6">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.16787466666667</v>
+        <v>64.15060166666667</v>
       </c>
       <c r="N6">
-        <v>162.503624</v>
+        <v>192.451805</v>
       </c>
       <c r="O6">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="P6">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="Q6">
-        <v>10.40512510067822</v>
+        <v>2.539187731636111</v>
       </c>
       <c r="R6">
-        <v>93.646125906104</v>
+        <v>22.852689584725</v>
       </c>
       <c r="S6">
-        <v>0.1834533789151802</v>
+        <v>0.06898274685240705</v>
       </c>
       <c r="T6">
-        <v>0.1834533789151802</v>
+        <v>0.06898274685240706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H7">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I7">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J7">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.06569666666667</v>
+        <v>65.55479199999999</v>
       </c>
       <c r="N7">
-        <v>288.19709</v>
+        <v>196.664376</v>
       </c>
       <c r="O7">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="P7">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="Q7">
-        <v>18.45329169459889</v>
+        <v>2.594767925346666</v>
       </c>
       <c r="R7">
-        <v>166.07962525139</v>
+        <v>23.35291132812</v>
       </c>
       <c r="S7">
-        <v>0.3253510823489222</v>
+        <v>0.07049270784700924</v>
       </c>
       <c r="T7">
-        <v>0.3253510823489222</v>
+        <v>0.07049270784700926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H8">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I8">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J8">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.309487</v>
+        <v>31.743396</v>
       </c>
       <c r="N8">
-        <v>48.928461</v>
+        <v>95.230188</v>
       </c>
       <c r="O8">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="P8">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="Q8">
-        <v>0.2149318561816667</v>
+        <v>3.12101069472</v>
       </c>
       <c r="R8">
-        <v>1.934386705635</v>
+        <v>28.08909625248</v>
       </c>
       <c r="S8">
-        <v>0.003789476327436776</v>
+        <v>0.08478927650568006</v>
       </c>
       <c r="T8">
-        <v>0.003789476327436776</v>
+        <v>0.08478927650568008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H9">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I9">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J9">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>85.10236499999999</v>
       </c>
       <c r="O9">
-        <v>0.1026647715316729</v>
+        <v>0.1062760886263749</v>
       </c>
       <c r="P9">
-        <v>0.1026647715316729</v>
+        <v>0.106276088626375</v>
       </c>
       <c r="Q9">
-        <v>0.3738357778083333</v>
+        <v>2.7890881756</v>
       </c>
       <c r="R9">
-        <v>3.364522000275</v>
+        <v>25.1017935804</v>
       </c>
       <c r="S9">
-        <v>0.006591120811594379</v>
+        <v>0.07577185458535804</v>
       </c>
       <c r="T9">
-        <v>0.00659112081159438</v>
+        <v>0.07577185458535807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H10">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I10">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J10">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>70.295663</v>
+        <v>70.51016133333333</v>
       </c>
       <c r="N10">
-        <v>210.886989</v>
+        <v>211.530484</v>
       </c>
       <c r="O10">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="P10">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="Q10">
-        <v>0.9263796789016667</v>
+        <v>6.932559062293334</v>
       </c>
       <c r="R10">
-        <v>8.337417110115</v>
+        <v>62.39303156064</v>
       </c>
       <c r="S10">
-        <v>0.016333055163536</v>
+        <v>0.1883385623186666</v>
       </c>
       <c r="T10">
-        <v>0.016333055163536</v>
+        <v>0.1883385623186666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H11">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I11">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J11">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.105304</v>
+        <v>6.595865666666666</v>
       </c>
       <c r="N11">
-        <v>33.315912</v>
+        <v>19.787597</v>
       </c>
       <c r="O11">
-        <v>0.04019125078191798</v>
+        <v>0.02471081047483217</v>
       </c>
       <c r="P11">
-        <v>0.04019125078191799</v>
+        <v>0.02471081047483218</v>
       </c>
       <c r="Q11">
-        <v>0.14634939788</v>
+        <v>0.6485055123466666</v>
       </c>
       <c r="R11">
-        <v>1.31714458092</v>
+        <v>5.83654961112</v>
       </c>
       <c r="S11">
-        <v>0.002580294929999265</v>
+        <v>0.01761811111216083</v>
       </c>
       <c r="T11">
-        <v>0.002580294929999266</v>
+        <v>0.01761811111216084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H12">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I12">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J12">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.16787466666667</v>
+        <v>64.15060166666667</v>
       </c>
       <c r="N12">
-        <v>162.503624</v>
+        <v>192.451805</v>
       </c>
       <c r="O12">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="P12">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="Q12">
-        <v>0.7138423083155556</v>
+        <v>6.307287155866668</v>
       </c>
       <c r="R12">
-        <v>6.42458077484</v>
+        <v>56.7655844028</v>
       </c>
       <c r="S12">
-        <v>0.01258579615391309</v>
+        <v>0.1713516443773294</v>
       </c>
       <c r="T12">
-        <v>0.01258579615391309</v>
+        <v>0.1713516443773294</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H13">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I13">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J13">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.06569666666667</v>
+        <v>65.55479199999999</v>
       </c>
       <c r="N13">
-        <v>288.19709</v>
+        <v>196.664376</v>
       </c>
       <c r="O13">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="P13">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="Q13">
-        <v>1.265985772572222</v>
+        <v>6.44534714944</v>
       </c>
       <c r="R13">
-        <v>11.39387195315</v>
+        <v>58.00812434496</v>
       </c>
       <c r="S13">
-        <v>0.02232067038019377</v>
+        <v>0.1751023546806505</v>
       </c>
       <c r="T13">
-        <v>0.02232067038019377</v>
+        <v>0.1751023546806506</v>
       </c>
     </row>
   </sheetData>
